--- a/server/files/vacations_Général.xlsx
+++ b/server/files/vacations_Général.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="170">
   <si>
     <t>REPOBILIKAN'I MADAGASIKARA</t>
   </si>
@@ -31,13 +31,13 @@
     <t>UNIVERSITÉ DE TOLIARA</t>
   </si>
   <si>
-    <t>PRESIDENCE</t>
+    <t>OFFICE DU BACCALAUREAT</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>BACCALAURÉAT DE L'ENSEIGNEMENT TECHNIQUE - 2025</t>
+    <t>BACCALAUREAT: - 2025</t>
   </si>
   <si>
     <t>VACATION DES CORRECTEURS - MATIÈRES GÉNÉRAL</t>
@@ -46,37 +46,481 @@
     <t>Nom et Prénom(s)</t>
   </si>
   <si>
+    <t>Matières</t>
+  </si>
+  <si>
+    <t>Spécialité</t>
+  </si>
+  <si>
+    <t>Pochettes</t>
+  </si>
+  <si>
+    <t>Nb de copies</t>
+  </si>
+  <si>
+    <t>Montant</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Matières</t>
-  </si>
-  <si>
-    <t>Pochettes</t>
-  </si>
-  <si>
-    <t>Nb de copies</t>
-  </si>
-  <si>
-    <t>Montant</t>
-  </si>
-  <si>
-    <t>Razz Cyciah</t>
+    <t>ANDRIANAMBININA Clément Emmanuel</t>
+  </si>
+  <si>
+    <t>315 000 Ar</t>
+  </si>
+  <si>
+    <t>Sciences Physiques</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>DPC</t>
+  </si>
+  <si>
+    <t>ANGELA Filao</t>
+  </si>
+  <si>
+    <t>Malagasy</t>
+  </si>
+  <si>
+    <t>DML</t>
+  </si>
+  <si>
+    <t>BRICE -</t>
+  </si>
+  <si>
+    <t>COCO -</t>
+  </si>
+  <si>
+    <t>405 000 Ar</t>
   </si>
   <si>
     <t>Français</t>
   </si>
   <si>
-    <t>OP56OK</t>
-  </si>
-  <si>
-    <t>tahirindrazana Sambatra</t>
-  </si>
-  <si>
-    <t>MOP45J</t>
+    <t>DFR</t>
+  </si>
+  <si>
+    <t>DIMBIZARA Rhodes Armel</t>
+  </si>
+  <si>
+    <t>360 000 Ar</t>
+  </si>
+  <si>
+    <t>Mathématiques Générales</t>
+  </si>
+  <si>
+    <t>DMT</t>
+  </si>
+  <si>
+    <t>DOERNER Bernardin Haeckel</t>
+  </si>
+  <si>
+    <t>540 000 Ar</t>
+  </si>
+  <si>
+    <t>Anglais</t>
+  </si>
+  <si>
+    <t>DAG</t>
+  </si>
+  <si>
+    <t>ELISAHARIMANANA Honoré Noêlizho Jérôme</t>
+  </si>
+  <si>
+    <t>FITAHIA Rolland Octavien</t>
+  </si>
+  <si>
+    <t>Philosophie</t>
+  </si>
+  <si>
+    <t>DPH</t>
+  </si>
+  <si>
+    <t>FOTOMAHAFALY Dieu Donné</t>
+  </si>
+  <si>
+    <t>347 400 Ar</t>
+  </si>
+  <si>
+    <t>HAJANIRINA Louisette</t>
+  </si>
+  <si>
+    <t>270 000 Ar</t>
+  </si>
+  <si>
+    <t>HANJAKA Amandine Tahora Sunny</t>
+  </si>
+  <si>
+    <t>584 000 Ar</t>
+  </si>
+  <si>
+    <t>CAG11</t>
+  </si>
+  <si>
+    <t>44 000 Ar</t>
+  </si>
+  <si>
+    <t>HAREVELO Ebilà</t>
+  </si>
+  <si>
+    <t>INSSA Ben Mohamed</t>
+  </si>
+  <si>
+    <t>Sciences Naturelles</t>
+  </si>
+  <si>
+    <t>DSVT</t>
+  </si>
+  <si>
+    <t>JAOMANAMBINA Achille Debon</t>
+  </si>
+  <si>
+    <t>297 000 Ar</t>
+  </si>
+  <si>
+    <t>JEAN Norel</t>
+  </si>
+  <si>
+    <t>Histoire - Géographie</t>
+  </si>
+  <si>
+    <t>DHG</t>
+  </si>
+  <si>
+    <t>JEAN  Arson Mosakely</t>
+  </si>
+  <si>
+    <t>359 000 Ar</t>
+  </si>
+  <si>
+    <t>CHG</t>
+  </si>
+  <si>
+    <t>LEBIAZA Jus-Jules</t>
+  </si>
+  <si>
+    <t>LILIANNE Remainty</t>
+  </si>
+  <si>
+    <t>DML03/51</t>
+  </si>
+  <si>
+    <t>45 000 Ar</t>
+  </si>
+  <si>
+    <t>DML13/51</t>
+  </si>
+  <si>
+    <t>DML20/51</t>
+  </si>
+  <si>
+    <t>DML27/51</t>
+  </si>
+  <si>
+    <t>DML35/51</t>
+  </si>
+  <si>
+    <t>DML43/51</t>
+  </si>
+  <si>
+    <t>DML48/51</t>
+  </si>
+  <si>
+    <t>MAHATSIPOKE Moravatsy Arline</t>
+  </si>
+  <si>
+    <t>MAHAVINDA Vahotoly Herindrainantenaina Bienvenu</t>
+  </si>
+  <si>
+    <t>314 000 Ar</t>
+  </si>
+  <si>
+    <t>DML6/51</t>
+  </si>
+  <si>
+    <t>DML15/51</t>
+  </si>
+  <si>
+    <t>DML21/51</t>
+  </si>
+  <si>
+    <t>DML29/51</t>
+  </si>
+  <si>
+    <t>DML37/51</t>
+  </si>
+  <si>
+    <t>DML45/51</t>
+  </si>
+  <si>
+    <t>DML51/51</t>
+  </si>
+  <si>
+    <t>MAHAVITSIKY Martine</t>
+  </si>
+  <si>
+    <t>MAMINIAINA Louis Stéphanie Rosia</t>
+  </si>
+  <si>
+    <t>DFR04/51</t>
+  </si>
+  <si>
+    <t>DFR07/51</t>
+  </si>
+  <si>
+    <t>DFR15/51</t>
+  </si>
+  <si>
+    <t>DFR20/51</t>
+  </si>
+  <si>
+    <t>DFR26/51</t>
+  </si>
+  <si>
+    <t>DFR35/51</t>
+  </si>
+  <si>
+    <t>DFR40/51</t>
+  </si>
+  <si>
+    <t>DFR44/51</t>
+  </si>
+  <si>
+    <t>MOSA Justor</t>
+  </si>
+  <si>
+    <t>RABIBIMANANDRATRA Oliva Severine</t>
+  </si>
+  <si>
+    <t>561 600 Ar</t>
+  </si>
+  <si>
+    <t>RADIMILAHY Fenosoa Jean Bruno</t>
+  </si>
+  <si>
+    <t>RAHARISOLO Zafinera Jeanne</t>
+  </si>
+  <si>
+    <t>CST11</t>
+  </si>
+  <si>
+    <t>RAKOTOMAMPIONONA Barrès</t>
+  </si>
+  <si>
+    <t>RAKOTONIRINA Fréderic</t>
+  </si>
+  <si>
+    <t>RAKOTONIRINA Tolotriniaina Marcel Fidel</t>
+  </si>
+  <si>
+    <t>RANAIVOMANANA Ranson</t>
+  </si>
+  <si>
+    <t>RANDEVOLAHY François</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CMT11</t>
+  </si>
+  <si>
+    <t>RANDRIAMANANTENA Erneste</t>
+  </si>
+  <si>
+    <t>441 000 Ar</t>
+  </si>
+  <si>
+    <t>RANDRIAMARO Randriatsarafara Luca Marc</t>
+  </si>
+  <si>
+    <t>CPC11</t>
+  </si>
+  <si>
+    <t>RANDRIANADRASANA Lala Thierry</t>
+  </si>
+  <si>
+    <t>RASOAMANANTENA Brigitte</t>
+  </si>
+  <si>
+    <t>267 300 Ar</t>
+  </si>
+  <si>
+    <t>RASOAMBOLANIAINA Yvonne</t>
+  </si>
+  <si>
+    <t>341 100 Ar</t>
+  </si>
+  <si>
+    <t>RASOLOFONJATOVO Voahiraniaina</t>
+  </si>
+  <si>
+    <t>RATEFIARIVONY Mamisoa</t>
+  </si>
+  <si>
+    <t>Théorique Education Physique et Sportive</t>
+  </si>
+  <si>
+    <t>C.EPS.11</t>
+  </si>
+  <si>
+    <t>RAVOLOLONIRINA Sahondra Viviane</t>
+  </si>
+  <si>
+    <t>88 000 Ar</t>
+  </si>
+  <si>
+    <t>Allemand</t>
+  </si>
+  <si>
+    <t>CAL11</t>
+  </si>
+  <si>
+    <t>DAL1/1</t>
+  </si>
+  <si>
+    <t>RAZAFIMAHARO Tsitaitra Elysé</t>
+  </si>
+  <si>
+    <t>RAZAFINDRAMARIA Paulijohanne</t>
+  </si>
+  <si>
+    <t>404 000 Ar</t>
+  </si>
+  <si>
+    <t>CFR11</t>
+  </si>
+  <si>
+    <t>RAZANANDRATOVOSOA Herilaza Jean-Louis</t>
+  </si>
+  <si>
+    <t>RAZANASOARINIRINA Miriama</t>
+  </si>
+  <si>
+    <t>Sambatra tahirindrazana</t>
+  </si>
+  <si>
+    <t>Mathématique</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>SMT11</t>
+  </si>
+  <si>
+    <t>SENDRANIRINA Myriam Gilbertine</t>
+  </si>
+  <si>
+    <t>387 900 Ar</t>
+  </si>
+  <si>
+    <t>SOAZANDRY Germain</t>
+  </si>
+  <si>
+    <t>TAFITASOA Dieu Donné</t>
+  </si>
+  <si>
+    <t>TOHISOA Manintsindraza Aimée Marovavy</t>
+  </si>
+  <si>
+    <t>CPH11</t>
+  </si>
+  <si>
+    <t>DPH5/51</t>
+  </si>
+  <si>
+    <t>DPH12/51</t>
+  </si>
+  <si>
+    <t>DPH19/51</t>
+  </si>
+  <si>
+    <t>DPH23/51</t>
+  </si>
+  <si>
+    <t>DPH33/51</t>
+  </si>
+  <si>
+    <t>DPH40/51</t>
+  </si>
+  <si>
+    <t>DPH47/51</t>
+  </si>
+  <si>
+    <t>TOLOTRARILALA Destine Ulisse Lydie</t>
+  </si>
+  <si>
+    <t>TSARALAHY Andriamihaja Delor</t>
+  </si>
+  <si>
+    <t>TSELANY Roselison Yvon</t>
+  </si>
+  <si>
+    <t>DML1/51</t>
+  </si>
+  <si>
+    <t>DML12/51</t>
+  </si>
+  <si>
+    <t>DML17/51</t>
+  </si>
+  <si>
+    <t>DML25/51</t>
+  </si>
+  <si>
+    <t>DML33/51</t>
+  </si>
+  <si>
+    <t>DML40/51</t>
+  </si>
+  <si>
+    <t>DML47/51</t>
+  </si>
+  <si>
+    <t>TSIVELO Randrianasolo Jean Philippe</t>
+  </si>
+  <si>
+    <t>TSIVERY Marc Espérant</t>
+  </si>
+  <si>
+    <t>387 000 Ar</t>
+  </si>
+  <si>
+    <t>VELO Jasmin Christ Offert</t>
+  </si>
+  <si>
+    <t>EPST4/4</t>
+  </si>
+  <si>
+    <t>VINCENT Merlande</t>
+  </si>
+  <si>
+    <t>Espagnol</t>
+  </si>
+  <si>
+    <t>DES1/1</t>
+  </si>
+  <si>
+    <t>VONARIVO Jeannot</t>
+  </si>
+  <si>
+    <t>YNGAULD Tsitoroa Zafison</t>
+  </si>
+  <si>
+    <t>295 200 Ar</t>
+  </si>
+  <si>
+    <t>ZAFIMAHATRATRA Prosper</t>
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>18 747 500 Ar</t>
   </si>
 </sst>
 </file>
@@ -122,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -131,6 +575,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G227"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
@@ -632,15 +1082,15 @@
         <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3">
-        <v>44000</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>7</v>
@@ -654,8 +1104,8 @@
       <c r="F15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="3">
-        <v>44000</v>
+      <c r="G15" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -663,19 +1113,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="4">
+        <v>350</v>
+      </c>
+      <c r="F16" t="s">
         <v>18</v>
-      </c>
-      <c r="E16">
-        <v>45</v>
-      </c>
-      <c r="F16">
-        <v>44000</v>
       </c>
       <c r="G16" t="s">
         <v>7</v>
@@ -683,10 +1133,10 @@
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="3">
-        <v>405000</v>
+        <v>22</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -700,8 +1150,8 @@
       <c r="F18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="3">
-        <v>405000</v>
+      <c r="G18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -709,19 +1159,19 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>450</v>
-      </c>
-      <c r="F19">
-        <v>405000</v>
+        <v>24</v>
+      </c>
+      <c r="E19" s="4">
+        <v>350</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
       </c>
       <c r="G19" t="s">
         <v>7</v>
@@ -729,7 +1179,7 @@
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>7</v>
@@ -744,10 +1194,3460 @@
         <v>7</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="3">
-        <v>449000</v>
+      <c r="E22" s="4">
+        <v>350</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="4">
+        <v>450</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="4">
+        <v>400</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="4">
+        <v>600</v>
+      </c>
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="4">
+        <v>400</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="4">
+        <v>400</v>
+      </c>
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="4">
+        <v>386</v>
+      </c>
+      <c r="F40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="4">
+        <v>300</v>
+      </c>
+      <c r="F43" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="4">
+        <v>600</v>
+      </c>
+      <c r="F46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="4">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="4">
+        <v>400</v>
+      </c>
+      <c r="F50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="4">
+        <v>350</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="4">
+        <v>330</v>
+      </c>
+      <c r="F56" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" s="4">
+        <v>350</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" s="4">
+        <v>350</v>
+      </c>
+      <c r="F62" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="4">
+        <v>47</v>
+      </c>
+      <c r="F63" t="s">
+        <v>49</v>
+      </c>
+      <c r="G63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" t="s">
+        <v>53</v>
+      </c>
+      <c r="E66" s="4">
+        <v>350</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="4">
+        <v>50</v>
+      </c>
+      <c r="F69" t="s">
+        <v>65</v>
+      </c>
+      <c r="G69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" t="s">
+        <v>66</v>
+      </c>
+      <c r="E70" s="4">
+        <v>50</v>
+      </c>
+      <c r="F70" t="s">
+        <v>65</v>
+      </c>
+      <c r="G70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" t="s">
+        <v>67</v>
+      </c>
+      <c r="E71" s="4">
+        <v>50</v>
+      </c>
+      <c r="F71" t="s">
+        <v>65</v>
+      </c>
+      <c r="G71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" t="s">
+        <v>68</v>
+      </c>
+      <c r="E72" s="4">
+        <v>50</v>
+      </c>
+      <c r="F72" t="s">
+        <v>65</v>
+      </c>
+      <c r="G72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="4">
+        <v>50</v>
+      </c>
+      <c r="F73" t="s">
+        <v>65</v>
+      </c>
+      <c r="G73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" t="s">
+        <v>70</v>
+      </c>
+      <c r="E74" s="4">
+        <v>50</v>
+      </c>
+      <c r="F74" t="s">
+        <v>65</v>
+      </c>
+      <c r="G74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" t="s">
+        <v>71</v>
+      </c>
+      <c r="E75" s="4">
+        <v>50</v>
+      </c>
+      <c r="F75" t="s">
+        <v>65</v>
+      </c>
+      <c r="G75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" s="4">
+        <v>300</v>
+      </c>
+      <c r="F78" t="s">
+        <v>45</v>
+      </c>
+      <c r="G78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" t="s">
+        <v>75</v>
+      </c>
+      <c r="E81" s="4">
+        <v>50</v>
+      </c>
+      <c r="F81" t="s">
+        <v>65</v>
+      </c>
+      <c r="G81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" t="s">
+        <v>76</v>
+      </c>
+      <c r="E82" s="4">
+        <v>50</v>
+      </c>
+      <c r="F82" t="s">
+        <v>65</v>
+      </c>
+      <c r="G82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" t="s">
+        <v>77</v>
+      </c>
+      <c r="E83" s="4">
+        <v>50</v>
+      </c>
+      <c r="F83" t="s">
+        <v>65</v>
+      </c>
+      <c r="G83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" t="s">
+        <v>78</v>
+      </c>
+      <c r="E84" s="4">
+        <v>50</v>
+      </c>
+      <c r="F84" t="s">
+        <v>65</v>
+      </c>
+      <c r="G84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>79</v>
+      </c>
+      <c r="E85" s="4">
+        <v>50</v>
+      </c>
+      <c r="F85" t="s">
+        <v>65</v>
+      </c>
+      <c r="G85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" t="s">
+        <v>80</v>
+      </c>
+      <c r="E86" s="4">
+        <v>50</v>
+      </c>
+      <c r="F86" t="s">
+        <v>65</v>
+      </c>
+      <c r="G86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" t="s">
+        <v>81</v>
+      </c>
+      <c r="E87" s="4">
+        <v>31</v>
+      </c>
+      <c r="F87" t="s">
+        <v>49</v>
+      </c>
+      <c r="G87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" t="s">
+        <v>53</v>
+      </c>
+      <c r="E90" s="4">
+        <v>400</v>
+      </c>
+      <c r="F90" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" t="s">
+        <v>84</v>
+      </c>
+      <c r="E93" s="4">
+        <v>50</v>
+      </c>
+      <c r="F93" t="s">
+        <v>65</v>
+      </c>
+      <c r="G93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" t="s">
+        <v>85</v>
+      </c>
+      <c r="E94" s="4">
+        <v>50</v>
+      </c>
+      <c r="F94" t="s">
+        <v>65</v>
+      </c>
+      <c r="G94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" t="s">
+        <v>86</v>
+      </c>
+      <c r="E95" s="4">
+        <v>50</v>
+      </c>
+      <c r="F95" t="s">
+        <v>65</v>
+      </c>
+      <c r="G95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" t="s">
+        <v>87</v>
+      </c>
+      <c r="E96" s="4">
+        <v>50</v>
+      </c>
+      <c r="F96" t="s">
+        <v>65</v>
+      </c>
+      <c r="G96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" t="s">
+        <v>88</v>
+      </c>
+      <c r="E97" s="4">
+        <v>50</v>
+      </c>
+      <c r="F97" t="s">
+        <v>65</v>
+      </c>
+      <c r="G97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" t="s">
+        <v>89</v>
+      </c>
+      <c r="E98" s="4">
+        <v>50</v>
+      </c>
+      <c r="F98" t="s">
+        <v>65</v>
+      </c>
+      <c r="G98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" t="s">
+        <v>90</v>
+      </c>
+      <c r="E99" s="4">
+        <v>50</v>
+      </c>
+      <c r="F99" t="s">
+        <v>65</v>
+      </c>
+      <c r="G99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" t="s">
+        <v>91</v>
+      </c>
+      <c r="E100" s="4">
+        <v>50</v>
+      </c>
+      <c r="F100" t="s">
+        <v>65</v>
+      </c>
+      <c r="G100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" t="s">
+        <v>41</v>
+      </c>
+      <c r="E103" s="4">
+        <v>350</v>
+      </c>
+      <c r="F103" t="s">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" t="s">
+        <v>36</v>
+      </c>
+      <c r="C106" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" t="s">
+        <v>37</v>
+      </c>
+      <c r="E106" s="4">
+        <v>624</v>
+      </c>
+      <c r="F106" t="s">
+        <v>94</v>
+      </c>
+      <c r="G106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" t="s">
+        <v>53</v>
+      </c>
+      <c r="E109" s="4">
+        <v>350</v>
+      </c>
+      <c r="F109" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s">
+        <v>52</v>
+      </c>
+      <c r="C112" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" t="s">
+        <v>53</v>
+      </c>
+      <c r="E112" s="4">
+        <v>350</v>
+      </c>
+      <c r="F112" t="s">
+        <v>18</v>
+      </c>
+      <c r="G112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" t="s">
+        <v>52</v>
+      </c>
+      <c r="C113" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" t="s">
+        <v>97</v>
+      </c>
+      <c r="E113" s="4">
+        <v>47</v>
+      </c>
+      <c r="F113" t="s">
+        <v>49</v>
+      </c>
+      <c r="G113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" t="s">
+        <v>32</v>
+      </c>
+      <c r="C116" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" t="s">
+        <v>33</v>
+      </c>
+      <c r="E116" s="4">
+        <v>400</v>
+      </c>
+      <c r="F116" t="s">
+        <v>31</v>
+      </c>
+      <c r="G116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" t="s">
+        <v>40</v>
+      </c>
+      <c r="C119" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" t="s">
+        <v>41</v>
+      </c>
+      <c r="E119" s="4">
+        <v>400</v>
+      </c>
+      <c r="F119" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
+        <v>57</v>
+      </c>
+      <c r="C122" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" t="s">
+        <v>58</v>
+      </c>
+      <c r="E122" s="4">
+        <v>350</v>
+      </c>
+      <c r="F122" t="s">
+        <v>18</v>
+      </c>
+      <c r="G122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
+        <v>40</v>
+      </c>
+      <c r="C125" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" t="s">
+        <v>41</v>
+      </c>
+      <c r="E125" s="4">
+        <v>350</v>
+      </c>
+      <c r="F125" t="s">
+        <v>18</v>
+      </c>
+      <c r="G125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128" t="s">
+        <v>103</v>
+      </c>
+      <c r="D128" t="s">
+        <v>104</v>
+      </c>
+      <c r="E128" s="4">
+        <v>47</v>
+      </c>
+      <c r="F128" t="s">
+        <v>49</v>
+      </c>
+      <c r="G128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>32</v>
+      </c>
+      <c r="C131" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" t="s">
+        <v>33</v>
+      </c>
+      <c r="E131" s="4">
+        <v>490</v>
+      </c>
+      <c r="F131" t="s">
+        <v>106</v>
+      </c>
+      <c r="G131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" t="s">
+        <v>21</v>
+      </c>
+      <c r="E134" s="4">
+        <v>350</v>
+      </c>
+      <c r="F134" t="s">
+        <v>18</v>
+      </c>
+      <c r="G134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135" t="s">
+        <v>108</v>
+      </c>
+      <c r="E135" s="4">
+        <v>47</v>
+      </c>
+      <c r="F135" t="s">
+        <v>49</v>
+      </c>
+      <c r="G135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>57</v>
+      </c>
+      <c r="C138" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" t="s">
+        <v>58</v>
+      </c>
+      <c r="E138" s="4">
+        <v>400</v>
+      </c>
+      <c r="F138" t="s">
+        <v>31</v>
+      </c>
+      <c r="G138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>23</v>
+      </c>
+      <c r="C141" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" t="s">
+        <v>24</v>
+      </c>
+      <c r="E141" s="4">
+        <v>297</v>
+      </c>
+      <c r="F141" t="s">
+        <v>111</v>
+      </c>
+      <c r="G141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" t="s">
+        <v>52</v>
+      </c>
+      <c r="C144" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" t="s">
+        <v>53</v>
+      </c>
+      <c r="E144" s="4">
+        <v>379</v>
+      </c>
+      <c r="F144" t="s">
+        <v>113</v>
+      </c>
+      <c r="G144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" t="s">
+        <v>24</v>
+      </c>
+      <c r="E147" s="4">
+        <v>300</v>
+      </c>
+      <c r="F147" t="s">
+        <v>45</v>
+      </c>
+      <c r="G147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" t="s">
+        <v>116</v>
+      </c>
+      <c r="C150" t="s">
+        <v>103</v>
+      </c>
+      <c r="D150" t="s">
+        <v>117</v>
+      </c>
+      <c r="E150" s="4">
+        <v>2</v>
+      </c>
+      <c r="F150" t="s">
+        <v>49</v>
+      </c>
+      <c r="G150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" t="s">
+        <v>120</v>
+      </c>
+      <c r="C153" t="s">
+        <v>103</v>
+      </c>
+      <c r="D153" t="s">
+        <v>121</v>
+      </c>
+      <c r="E153" s="4">
+        <v>1</v>
+      </c>
+      <c r="F153" t="s">
+        <v>49</v>
+      </c>
+      <c r="G153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" t="s">
+        <v>120</v>
+      </c>
+      <c r="C154" t="s">
+        <v>103</v>
+      </c>
+      <c r="D154" t="s">
+        <v>122</v>
+      </c>
+      <c r="E154" s="4">
+        <v>3</v>
+      </c>
+      <c r="F154" t="s">
+        <v>49</v>
+      </c>
+      <c r="G154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" t="s">
+        <v>21</v>
+      </c>
+      <c r="E157" s="4">
+        <v>400</v>
+      </c>
+      <c r="F157" t="s">
+        <v>31</v>
+      </c>
+      <c r="G157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" t="s">
+        <v>28</v>
+      </c>
+      <c r="C160" t="s">
+        <v>20</v>
+      </c>
+      <c r="D160" t="s">
+        <v>29</v>
+      </c>
+      <c r="E160" s="4">
+        <v>400</v>
+      </c>
+      <c r="F160" t="s">
+        <v>31</v>
+      </c>
+      <c r="G160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" t="s">
+        <v>28</v>
+      </c>
+      <c r="C161" t="s">
+        <v>20</v>
+      </c>
+      <c r="D161" t="s">
+        <v>126</v>
+      </c>
+      <c r="E161" s="4">
+        <v>47</v>
+      </c>
+      <c r="F161" t="s">
+        <v>49</v>
+      </c>
+      <c r="G161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>7</v>
+      </c>
+      <c r="B164" t="s">
+        <v>36</v>
+      </c>
+      <c r="C164" t="s">
+        <v>20</v>
+      </c>
+      <c r="D164" t="s">
+        <v>37</v>
+      </c>
+      <c r="E164" s="4">
+        <v>600</v>
+      </c>
+      <c r="F164" t="s">
+        <v>35</v>
+      </c>
+      <c r="G164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" t="s">
+        <v>57</v>
+      </c>
+      <c r="C167" t="s">
+        <v>20</v>
+      </c>
+      <c r="D167" t="s">
+        <v>58</v>
+      </c>
+      <c r="E167" s="4">
+        <v>350</v>
+      </c>
+      <c r="F167" t="s">
+        <v>18</v>
+      </c>
+      <c r="G167" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" t="s">
+        <v>130</v>
+      </c>
+      <c r="C170" t="s">
+        <v>131</v>
+      </c>
+      <c r="D170" t="s">
+        <v>132</v>
+      </c>
+      <c r="E170" s="4">
+        <v>50</v>
+      </c>
+      <c r="F170" t="s">
+        <v>65</v>
+      </c>
+      <c r="G170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>7</v>
+      </c>
+      <c r="B173" t="s">
+        <v>28</v>
+      </c>
+      <c r="C173" t="s">
+        <v>20</v>
+      </c>
+      <c r="D173" t="s">
+        <v>29</v>
+      </c>
+      <c r="E173" s="4">
+        <v>431</v>
+      </c>
+      <c r="F173" t="s">
+        <v>134</v>
+      </c>
+      <c r="G173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" t="s">
+        <v>52</v>
+      </c>
+      <c r="C176" t="s">
+        <v>20</v>
+      </c>
+      <c r="D176" t="s">
+        <v>53</v>
+      </c>
+      <c r="E176" s="4">
+        <v>350</v>
+      </c>
+      <c r="F176" t="s">
+        <v>18</v>
+      </c>
+      <c r="G176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" t="s">
+        <v>57</v>
+      </c>
+      <c r="C179" t="s">
+        <v>20</v>
+      </c>
+      <c r="D179" t="s">
+        <v>58</v>
+      </c>
+      <c r="E179" s="4">
+        <v>300</v>
+      </c>
+      <c r="F179" t="s">
+        <v>45</v>
+      </c>
+      <c r="G179" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182" t="s">
+        <v>40</v>
+      </c>
+      <c r="C182" t="s">
+        <v>20</v>
+      </c>
+      <c r="D182" t="s">
+        <v>138</v>
+      </c>
+      <c r="E182" s="4">
+        <v>47</v>
+      </c>
+      <c r="F182" t="s">
+        <v>49</v>
+      </c>
+      <c r="G182" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" t="s">
+        <v>40</v>
+      </c>
+      <c r="C183" t="s">
+        <v>20</v>
+      </c>
+      <c r="D183" t="s">
+        <v>139</v>
+      </c>
+      <c r="E183" s="4">
+        <v>50</v>
+      </c>
+      <c r="F183" t="s">
+        <v>65</v>
+      </c>
+      <c r="G183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" t="s">
+        <v>40</v>
+      </c>
+      <c r="C184" t="s">
+        <v>20</v>
+      </c>
+      <c r="D184" t="s">
+        <v>140</v>
+      </c>
+      <c r="E184" s="4">
+        <v>50</v>
+      </c>
+      <c r="F184" t="s">
+        <v>65</v>
+      </c>
+      <c r="G184" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" t="s">
+        <v>40</v>
+      </c>
+      <c r="C185" t="s">
+        <v>20</v>
+      </c>
+      <c r="D185" t="s">
+        <v>141</v>
+      </c>
+      <c r="E185" s="4">
+        <v>50</v>
+      </c>
+      <c r="F185" t="s">
+        <v>65</v>
+      </c>
+      <c r="G185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186" t="s">
+        <v>40</v>
+      </c>
+      <c r="C186" t="s">
+        <v>20</v>
+      </c>
+      <c r="D186" t="s">
+        <v>142</v>
+      </c>
+      <c r="E186" s="4">
+        <v>50</v>
+      </c>
+      <c r="F186" t="s">
+        <v>65</v>
+      </c>
+      <c r="G186" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187" t="s">
+        <v>40</v>
+      </c>
+      <c r="C187" t="s">
+        <v>20</v>
+      </c>
+      <c r="D187" t="s">
+        <v>143</v>
+      </c>
+      <c r="E187" s="4">
+        <v>50</v>
+      </c>
+      <c r="F187" t="s">
+        <v>65</v>
+      </c>
+      <c r="G187" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>7</v>
+      </c>
+      <c r="B188" t="s">
+        <v>40</v>
+      </c>
+      <c r="C188" t="s">
+        <v>20</v>
+      </c>
+      <c r="D188" t="s">
+        <v>144</v>
+      </c>
+      <c r="E188" s="4">
+        <v>50</v>
+      </c>
+      <c r="F188" t="s">
+        <v>65</v>
+      </c>
+      <c r="G188" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189" t="s">
+        <v>40</v>
+      </c>
+      <c r="C189" t="s">
+        <v>20</v>
+      </c>
+      <c r="D189" t="s">
+        <v>145</v>
+      </c>
+      <c r="E189" s="4">
+        <v>50</v>
+      </c>
+      <c r="F189" t="s">
+        <v>65</v>
+      </c>
+      <c r="G189" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>7</v>
+      </c>
+      <c r="B192" t="s">
+        <v>28</v>
+      </c>
+      <c r="C192" t="s">
+        <v>20</v>
+      </c>
+      <c r="D192" t="s">
+        <v>29</v>
+      </c>
+      <c r="E192" s="4">
+        <v>450</v>
+      </c>
+      <c r="F192" t="s">
+        <v>27</v>
+      </c>
+      <c r="G192" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" t="s">
+        <v>19</v>
+      </c>
+      <c r="C195" t="s">
+        <v>20</v>
+      </c>
+      <c r="D195" t="s">
+        <v>21</v>
+      </c>
+      <c r="E195" s="4">
+        <v>350</v>
+      </c>
+      <c r="F195" t="s">
+        <v>18</v>
+      </c>
+      <c r="G195" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>7</v>
+      </c>
+      <c r="B198" t="s">
+        <v>23</v>
+      </c>
+      <c r="C198" t="s">
+        <v>20</v>
+      </c>
+      <c r="D198" t="s">
+        <v>149</v>
+      </c>
+      <c r="E198" s="4">
+        <v>50</v>
+      </c>
+      <c r="F198" t="s">
+        <v>65</v>
+      </c>
+      <c r="G198" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>7</v>
+      </c>
+      <c r="B199" t="s">
+        <v>23</v>
+      </c>
+      <c r="C199" t="s">
+        <v>20</v>
+      </c>
+      <c r="D199" t="s">
+        <v>150</v>
+      </c>
+      <c r="E199" s="4">
+        <v>50</v>
+      </c>
+      <c r="F199" t="s">
+        <v>65</v>
+      </c>
+      <c r="G199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>7</v>
+      </c>
+      <c r="B200" t="s">
+        <v>23</v>
+      </c>
+      <c r="C200" t="s">
+        <v>20</v>
+      </c>
+      <c r="D200" t="s">
+        <v>151</v>
+      </c>
+      <c r="E200" s="4">
+        <v>50</v>
+      </c>
+      <c r="F200" t="s">
+        <v>65</v>
+      </c>
+      <c r="G200" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>7</v>
+      </c>
+      <c r="B201" t="s">
+        <v>23</v>
+      </c>
+      <c r="C201" t="s">
+        <v>20</v>
+      </c>
+      <c r="D201" t="s">
+        <v>152</v>
+      </c>
+      <c r="E201" s="4">
+        <v>50</v>
+      </c>
+      <c r="F201" t="s">
+        <v>65</v>
+      </c>
+      <c r="G201" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>7</v>
+      </c>
+      <c r="B202" t="s">
+        <v>23</v>
+      </c>
+      <c r="C202" t="s">
+        <v>20</v>
+      </c>
+      <c r="D202" t="s">
+        <v>153</v>
+      </c>
+      <c r="E202" s="4">
+        <v>50</v>
+      </c>
+      <c r="F202" t="s">
+        <v>65</v>
+      </c>
+      <c r="G202" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>7</v>
+      </c>
+      <c r="B203" t="s">
+        <v>23</v>
+      </c>
+      <c r="C203" t="s">
+        <v>20</v>
+      </c>
+      <c r="D203" t="s">
+        <v>154</v>
+      </c>
+      <c r="E203" s="4">
+        <v>50</v>
+      </c>
+      <c r="F203" t="s">
+        <v>65</v>
+      </c>
+      <c r="G203" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" t="s">
+        <v>23</v>
+      </c>
+      <c r="C204" t="s">
+        <v>20</v>
+      </c>
+      <c r="D204" t="s">
+        <v>155</v>
+      </c>
+      <c r="E204" s="4">
+        <v>50</v>
+      </c>
+      <c r="F204" t="s">
+        <v>65</v>
+      </c>
+      <c r="G204" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>7</v>
+      </c>
+      <c r="B207" t="s">
+        <v>32</v>
+      </c>
+      <c r="C207" t="s">
+        <v>20</v>
+      </c>
+      <c r="D207" t="s">
+        <v>33</v>
+      </c>
+      <c r="E207" s="4">
+        <v>400</v>
+      </c>
+      <c r="F207" t="s">
+        <v>31</v>
+      </c>
+      <c r="G207" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>7</v>
+      </c>
+      <c r="B210" t="s">
+        <v>57</v>
+      </c>
+      <c r="C210" t="s">
+        <v>20</v>
+      </c>
+      <c r="D210" t="s">
+        <v>58</v>
+      </c>
+      <c r="E210" s="4">
+        <v>430</v>
+      </c>
+      <c r="F210" t="s">
+        <v>158</v>
+      </c>
+      <c r="G210" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>7</v>
+      </c>
+      <c r="B213" t="s">
+        <v>116</v>
+      </c>
+      <c r="C213" t="s">
+        <v>20</v>
+      </c>
+      <c r="D213" t="s">
+        <v>160</v>
+      </c>
+      <c r="E213" s="4">
+        <v>2</v>
+      </c>
+      <c r="F213" t="s">
+        <v>49</v>
+      </c>
+      <c r="G213" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>7</v>
+      </c>
+      <c r="B216" t="s">
+        <v>162</v>
+      </c>
+      <c r="C216" t="s">
+        <v>20</v>
+      </c>
+      <c r="D216" t="s">
+        <v>163</v>
+      </c>
+      <c r="E216" s="4">
+        <v>3</v>
+      </c>
+      <c r="F216" t="s">
+        <v>49</v>
+      </c>
+      <c r="G216" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>7</v>
+      </c>
+      <c r="B219" t="s">
+        <v>32</v>
+      </c>
+      <c r="C219" t="s">
+        <v>20</v>
+      </c>
+      <c r="D219" t="s">
+        <v>33</v>
+      </c>
+      <c r="E219" s="4">
+        <v>450</v>
+      </c>
+      <c r="F219" t="s">
+        <v>27</v>
+      </c>
+      <c r="G219" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>7</v>
+      </c>
+      <c r="B222" t="s">
+        <v>40</v>
+      </c>
+      <c r="C222" t="s">
+        <v>20</v>
+      </c>
+      <c r="D222" t="s">
+        <v>41</v>
+      </c>
+      <c r="E222" s="4">
+        <v>328</v>
+      </c>
+      <c r="F222" t="s">
+        <v>166</v>
+      </c>
+      <c r="G222" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>7</v>
+      </c>
+      <c r="B225" t="s">
+        <v>40</v>
+      </c>
+      <c r="C225" t="s">
+        <v>20</v>
+      </c>
+      <c r="D225" t="s">
+        <v>41</v>
+      </c>
+      <c r="E225" s="4">
+        <v>350</v>
+      </c>
+      <c r="F225" t="s">
+        <v>18</v>
+      </c>
+      <c r="G225" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G227" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
